--- a/plans.xlsx
+++ b/plans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Запрос</t>
   </si>
@@ -236,13 +236,6 @@
 Execution Time: 0.220 ms</t>
   </si>
   <si>
-    <t>Полученная сумма за определенный период времени
-explain analyze select sum(tickets.final_price)
-from sessions
-join tickets on tickets.id_sessions=sessions.id
-where start_time &gt;= '2021-10-03 00:00:00' and start_time &lt; '2021-10-03 01:00:00'</t>
-  </si>
-  <si>
     <t>Aggregate  (cost=234.40..234.41 rows=1 width=32) (actual time=2.663..2.665 rows=1 loops=1)
   -&gt;  Hash Join  (cost=24.01..234.37 rows=10 width=5) (actual time=2.658..2.660 rows=0 loops=1)
         Hash Cond: (tickets.id_sessions = sessions.id)
@@ -254,39 +247,6 @@
                     Rows Removed by Filter: 1000
 Planning Time: 13.875 ms
 Execution Time: 2.776 ms</t>
-  </si>
-  <si>
-    <t>Finalize Aggregate  (cost=139272.98..139272.99 rows=1 width=32) (actual time=102.716..107.246 rows=1 loops=1)
-  -&gt;  Gather  (cost=139272.75..139272.96 rows=2 width=32) (actual time=28.828..107.233 rows=3 loops=1)
-        Workers Planned: 2
-        Workers Launched: 2
-        -&gt;  Partial Aggregate  (cost=138272.75..138272.76 rows=1 width=32) (actual time=22.937..22.939 rows=1 loops=3)
-              -&gt;  Hash Join  (cost=2334.01..138272.65 rows=42 width=5) (actual time=22.933..22.935 rows=0 loops=3)
-                    Hash Cond: (tickets.id_sessions = sessions.id)
-                    -&gt;  Parallel Seq Scan on tickets  (cost=0.00..125000.67 rows=4166667 width=13) (actual time=0.012..0.013 rows=1 loops=3)
-                    -&gt;  Hash  (cost=2334.00..2334.00 rows=1 width=8) (actual time=22.813..22.814 rows=0 loops=3)
-                          Buckets: 1024  Batches: 1  Memory Usage: 8kB
-                          -&gt;  Seq Scan on sessions  (cost=0.00..2334.00 rows=1 width=8) (actual time=22.812..22.812 rows=0 loops=3)
-                                Filter: ((start_time &gt;= '2021-10-03 00:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 01:00:00'::timestamp without time zone))
-                                Rows Removed by Filter: 100000
-Planning Time: 1.419 ms
-Execution Time: 107.294 ms</t>
-  </si>
-  <si>
-    <t>Finalize Aggregate  (cost=136947.29..136947.30 rows=1 width=32) (actual time=81.956..85.609 rows=1 loops=1)
-  -&gt;  Gather  (cost=136947.07..136947.28 rows=2 width=32) (actual time=0.528..85.598 rows=3 loops=1)
-        Workers Planned: 2
-        Workers Launched: 2
-        -&gt;  Partial Aggregate  (cost=135947.07..135947.08 rows=1 width=32) (actual time=0.108..0.110 rows=1 loops=3)
-              -&gt;  Hash Join  (cost=8.32..135946.96 rows=42 width=5) (actual time=0.104..0.106 rows=0 loops=3)
-                    Hash Cond: (tickets.id_sessions = sessions.id)
-                    -&gt;  Parallel Seq Scan on tickets  (cost=0.00..125000.67 rows=4166667 width=13) (actual time=0.010..0.010 rows=1 loops=3)
-                    -&gt;  Hash  (cost=8.31..8.31 rows=1 width=8) (actual time=0.018..0.019 rows=0 loops=3)
-                          Buckets: 1024  Batches: 1  Memory Usage: 8kB
-                          -&gt;  Index Scan using sessions_start_time_idx on sessions  (cost=0.29..8.31 rows=1 width=8) (actual time=0.018..0.018 rows=0 loops=3)
-                                Index Cond: ((start_time &gt;= '2021-10-03 00:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 01:00:00'::timestamp without time zone))
-Planning Time: 0.347 ms
-Execution Time: 85.673 ms</t>
   </si>
   <si>
     <t>Добавленный индекс для поля id_clients таблицы tickets, для предыдущего запроса, также увеличил скорость это запроса</t>
@@ -336,40 +296,80 @@
 Execution Time: 7119.270 ms</t>
   </si>
   <si>
-    <t>Aggregate  (cost=24.00..24.01 rows=1 width=8) (actual time=0.223..0.224 rows=1 loops=1)
-  -&gt;  Seq Scan on sessions  (cost=0.00..24.00 rows=1 width=8) (actual time=0.219..0.219 rows=0 loops=1)
-        Filter: ((start_time &gt;= '2021-10-03 02:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 03:00:00'::timestamp without time zone))
-        Rows Removed by Filter: 1000
-Planning Time: 0.094 ms
-Execution Time: 0.248 ms</t>
+    <t>CREATE INDEX sessions_start_time_idx ON public.sessions USING btree (start_time);
+Добавление индекса для поля start_time таблицы sessions, ускорило запрос.</t>
   </si>
   <si>
     <t>Количество сеансов за определенный период:
 explain analyze select count(id)
 from public.sessions
-where start_time &gt;= '2021-10-03 02:00:00' and start_time &lt; '2021-10-03 03:00:00'</t>
-  </si>
-  <si>
-    <t>Aggregate  (cost=2334.00..2334.01 rows=1 width=8) (actual time=22.155..22.155 rows=1 loops=1)
-  -&gt;  Seq Scan on sessions  (cost=0.00..2334.00 rows=1 width=8) (actual time=22.150..22.150 rows=0 loops=1)
-        Filter: ((start_time &gt;= '2021-10-03 02:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 03:00:00'::timestamp without time zone))
-        Rows Removed by Filter: 100000
-Planning Time: 0.781 ms
-Execution Time: 22.191 ms</t>
-  </si>
-  <si>
-    <t>Aggregate  (cost=8.31..8.32 rows=1 width=8) (actual time=0.010..0.011 rows=1 loops=1)
-  -&gt;  Index Scan using sessions_start_time_idx on sessions  (cost=0.29..8.31 rows=1 width=8) (actual time=0.007..0.007 rows=0 loops=1)
-        Index Cond: ((start_time &gt;= '2021-10-03 02:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 03:00:00'::timestamp without time zone))
-Planning Time: 0.163 ms
-Execution Time: 0.037 ms</t>
-  </si>
-  <si>
-    <t>CREATE INDEX sessions_start_time_idx ON public.sessions USING btree (start_time);
-Добавление индекса для поля start_time таблицы sessions, ускорило запрос.</t>
-  </si>
-  <si>
-    <t>Добавленный индекс sessions_start_time_idx  сократилось время запроса примерно на 20%</t>
+where start_time &gt;= '2021-10-03 10:00:00' and start_time &lt; '2021-10-03 11:00:00'</t>
+  </si>
+  <si>
+    <t>Aggregate  (cost=24.00..24.01 rows=1 width=8) (actual time=0.222..0.222 rows=1 loops=1)
+  -&gt;  Seq Scan on sessions  (cost=0.00..24.00 rows=1 width=8) (actual time=0.217..0.218 rows=0 loops=1)
+        Filter: ((start_time &gt;= '2021-10-03 10:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 11:00:00'::timestamp without time zone))
+        Rows Removed by Filter: 1000
+Planning Time: 2.086 ms
+Execution Time: 0.314 ms</t>
+  </si>
+  <si>
+    <t>Aggregate  (cost=61.65..61.66 rows=1 width=8) (actual time=0.676..0.677 rows=1 loops=1)
+  -&gt;  Index Scan using sessions_start_time_idx on sessions  (cost=0.29..58.27 rows=1349 width=8) (actual time=0.031..0.442 rows=1431 loops=1)
+        Index Cond: ((start_time &gt;= '2021-10-03 10:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 11:00:00'::timestamp without time zone))
+Planning Time: 0.180 ms
+Execution Time: 0.710 ms</t>
+  </si>
+  <si>
+    <t>Aggregate  (cost=2337.35..2337.36 rows=1 width=8) (actual time=20.009..20.010 rows=1 loops=1)
+  -&gt;  Seq Scan on sessions  (cost=0.00..2334.00 rows=1339 width=8) (actual time=0.017..19.831 rows=1431 loops=1)
+        Filter: ((start_time &gt;= '2021-10-03 10:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 11:00:00'::timestamp without time zone))
+        Rows Removed by Filter: 98569
+Planning Time: 0.791 ms
+Execution Time: 20.046 ms</t>
+  </si>
+  <si>
+    <t>Полученная сумма за определенный период времени
+explain analyze select sum(tickets.final_price)
+from sessions
+join tickets on tickets.id_sessions=sessions.id
+where start_time &gt;= '2021-10-03 10:00:00' and start_time &lt; '2021-10-03 11:00:00'</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=139429.08..139429.09 rows=1 width=32) (actual time=1322.005..1326.034 rows=1 loops=1)
+  -&gt;  Gather  (cost=139428.85..139429.06 rows=2 width=32) (actual time=1321.813..1326.019 rows=3 loops=1)
+        Workers Planned: 2
+        Workers Launched: 2
+        -&gt;  Partial Aggregate  (cost=138428.85..138428.86 rows=1 width=32) (actual time=1257.634..1257.636 rows=1 loops=3)
+              -&gt;  Hash Join  (cost=2350.74..138289.37 rows=55792 width=5) (actual time=27.918..1234.820 rows=47727 loops=3)
+                    Hash Cond: (tickets.id_sessions = sessions.id)
+                    -&gt;  Parallel Seq Scan on tickets  (cost=0.00..125000.67 rows=4166667 width=13) (actual time=0.392..605.182 rows=3333333 loops=3)
+                    -&gt;  Hash  (cost=2334.00..2334.00 rows=1339 width=8) (actual time=27.276..27.276 rows=1431 loops=3)
+                          Buckets: 2048  Batches: 1  Memory Usage: 72kB
+                          -&gt;  Seq Scan on sessions  (cost=0.00..2334.00 rows=1339 width=8) (actual time=0.303..26.911 rows=1431 loops=3)
+                                Filter: ((start_time &gt;= '2021-10-03 10:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 11:00:00'::timestamp without time zone))
+                                Rows Removed by Filter: 98569
+Planning Time: 1.145 ms
+Execution Time: 1326.091 ms</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=137502.10..137502.11 rows=1 width=32) (actual time=1387.629..1392.362 rows=1 loops=1)
+  -&gt;  Gather  (cost=137501.88..137502.09 rows=2 width=32) (actual time=1387.423..1392.349 rows=3 loops=1)
+        Workers Planned: 2
+        Workers Launched: 2
+        -&gt;  Partial Aggregate  (cost=136501.88..136501.89 rows=1 width=32) (actual time=1322.370..1322.372 rows=1 loops=3)
+              -&gt;  Hash Join  (cost=189.80..136128.44 rows=149375 width=5) (actual time=2.854..1280.552 rows=120001 loops=3)
+                    Hash Cond: (tickets.id_sessions = sessions.id)
+                    -&gt;  Parallel Seq Scan on tickets  (cost=0.00..125000.67 rows=4166667 width=13) (actual time=0.310..613.185 rows=3333333 loops=3)
+                    -&gt;  Hash  (cost=144.99..144.99 rows=3585 width=8) (actual time=2.412..2.412 rows=3600 loops=3)
+                          Buckets: 4096  Batches: 1  Memory Usage: 173kB
+                          -&gt;  Index Scan using sessions_start_time_idx on sessions  (cost=0.29..144.99 rows=3585 width=8) (actual time=0.037..1.513 rows=3600 loops=3)
+                                Index Cond: ((start_time &gt;= '2021-10-03 11:00:00'::timestamp without time zone) AND (start_time &lt; '2021-10-03 12:00:00'::timestamp without time zone))
+Planning Time: 0.347 ms
+Execution Time: 1392.466 ms</t>
+  </si>
+  <si>
+    <t>Изменения не произошло</t>
   </si>
 </sst>
 </file>
@@ -440,9 +440,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,19 +784,19 @@
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -804,10 +806,10 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -821,10 +823,10 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -833,16 +835,16 @@
     </row>
     <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
@@ -855,30 +857,32 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
